--- a/data/posted invoices1.xlsx
+++ b/data/posted invoices1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>reference</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>4643/21689</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>doc. number</t>
   </si>
 </sst>
 </file>
@@ -368,93 +374,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5461563</v>
+      </c>
+      <c r="B2">
+        <v>78000163</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>44280</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>1253.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>654632</v>
+      </c>
+      <c r="B3">
+        <v>78000185</v>
+      </c>
+      <c r="C3">
         <v>4568456315</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>43966</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>25102.35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>654631</v>
+      </c>
+      <c r="B4">
+        <v>78000207</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>44348</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6546323</v>
+      </c>
+      <c r="B5">
+        <v>78000229</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
         <v>44236</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6865</v>
+      </c>
+      <c r="B6">
+        <v>78000251</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>43966</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>156.58000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>987651</v>
+      </c>
+      <c r="B7">
+        <v>78000273</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1">
         <v>44229</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>1120.3599999999999</v>
       </c>
     </row>
